--- a/trade_log.xlsx
+++ b/trade_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,12 +498,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>e295482f-e9b9-434e-831b-4210e86a8126</t>
+          <t>a021d8d5-8333-402a-ba3d-013cc096cdc7</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-22 00:28:44</t>
+          <t>2025-02-26 15:54:06</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -513,11 +513,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>market_buy</t>
+          <t>market_sell</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>99144.39999999999</v>
+        <v>88789.5</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -531,31 +531,31 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Bullish</t>
+          <t>Bearish</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>98680.30050000001</v>
+        <v>88872.25900000001</v>
       </c>
       <c r="J2" t="n">
-        <v>99167.64761904761</v>
+        <v>89012.56666666667</v>
       </c>
       <c r="K2" t="n">
-        <v>99113.67142857144</v>
+        <v>88913.6142857143</v>
       </c>
       <c r="L2" t="n">
-        <v>99130.86</v>
+        <v>88888.31999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>e295482f-e9b9-434e-831b-4210e86a8126</t>
+          <t>a021d8d5-8333-402a-ba3d-013cc096cdc7</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-22 00:28:54</t>
+          <t>2025-02-26 15:54:13</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -565,11 +565,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>market_buy</t>
+          <t>market_sell</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>99162.8</v>
+        <v>88824.60000000001</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -583,31 +583,31 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Bullish</t>
+          <t>Bearish</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>98680.39199999999</v>
+        <v>88874.3055</v>
       </c>
       <c r="J3" t="n">
-        <v>99168.51904761905</v>
+        <v>89000.22857142857</v>
       </c>
       <c r="K3" t="n">
-        <v>99116.28571428571</v>
+        <v>88897.51428571428</v>
       </c>
       <c r="L3" t="n">
-        <v>99134.51999999999</v>
+        <v>88858</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ca2bfefb-f23f-4660-a9f3-c7574daaeded</t>
+          <t>578a2c18-4ae1-47be-84ed-61b1c344cc26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-22 00:28:59</t>
+          <t>2025-02-26 15:54:20</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -617,11 +617,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>market_buy</t>
+          <t>market_sell</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>99154.2</v>
+        <v>88855.7</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -635,31 +635,31 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Bullish</t>
+          <t>Bearish</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>98680.325</v>
+        <v>88874.436</v>
       </c>
       <c r="J4" t="n">
-        <v>99167.88095238095</v>
+        <v>89001.47142857143</v>
       </c>
       <c r="K4" t="n">
-        <v>99114.37142857142</v>
+        <v>88901.24285714286</v>
       </c>
       <c r="L4" t="n">
-        <v>99131.84</v>
+        <v>88863.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ca2bfefb-f23f-4660-a9f3-c7574daaeded</t>
+          <t>578a2c18-4ae1-47be-84ed-61b1c344cc26</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-22 00:29:17</t>
+          <t>2025-02-26 15:54:42</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -669,11 +669,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>market_buy</t>
+          <t>market_sell</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>99125.10000000001</v>
+        <v>88846.8</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -687,31 +687,31 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Bullish</t>
+          <t>Bearish</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>98684.24800000001</v>
+        <v>88874.3515</v>
       </c>
       <c r="J5" t="n">
-        <v>99160.78095238094</v>
+        <v>89000.66666666667</v>
       </c>
       <c r="K5" t="n">
-        <v>99121.25714285715</v>
+        <v>88898.82857142857</v>
       </c>
       <c r="L5" t="n">
-        <v>99142.78</v>
+        <v>88859.84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>637b8b66-cb03-4efc-a3ac-e394c427e8c6</t>
+          <t>a195c98a-4a84-489b-8988-2522e8bd68e3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-22 00:29:23</t>
+          <t>2025-02-26 15:54:49</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -721,11 +721,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>market_buy</t>
+          <t>market_sell</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>99144</v>
+        <v>88855.7</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -739,31 +739,31 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Bullish</t>
+          <t>Bearish</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>98684.29949999999</v>
+        <v>88874.43550000001</v>
       </c>
       <c r="J6" t="n">
-        <v>99161.27142857143</v>
+        <v>89001.46666666667</v>
       </c>
       <c r="K6" t="n">
-        <v>99122.72857142857</v>
+        <v>88901.22857142857</v>
       </c>
       <c r="L6" t="n">
-        <v>99144.84</v>
+        <v>88863.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>637b8b66-cb03-4efc-a3ac-e394c427e8c6</t>
+          <t>a195c98a-4a84-489b-8988-2522e8bd68e3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-22 00:29:39</t>
+          <t>2025-02-26 15:55:36</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -773,11 +773,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>market_buy</t>
+          <t>market_sell</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>99159.8</v>
+        <v>88838.8</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -791,31 +791,31 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Bullish</t>
+          <t>Bearish</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>98684.37849999999</v>
+        <v>88876.649</v>
       </c>
       <c r="J7" t="n">
-        <v>99162.02380952382</v>
+        <v>88991.40476190476</v>
       </c>
       <c r="K7" t="n">
-        <v>99124.98571428572</v>
+        <v>88883.68571428572</v>
       </c>
       <c r="L7" t="n">
-        <v>99148</v>
+        <v>88845.73999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3d556c20-ce1a-4c49-87ac-2066de35c3e6</t>
+          <t>40970e21-aa22-4d50-a566-d28d86a053b9</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-22 00:29:45</t>
+          <t>2025-02-26 15:55:49</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -825,11 +825,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>market_buy</t>
+          <t>market_sell</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>99159.8</v>
+        <v>88833.7</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -843,31 +843,31 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Bullish</t>
+          <t>Bearish</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>98684.334</v>
+        <v>88876.492</v>
       </c>
       <c r="J8" t="n">
-        <v>99161.59999999999</v>
+        <v>88989.90952380953</v>
       </c>
       <c r="K8" t="n">
-        <v>99123.71428571429</v>
+        <v>88879.2</v>
       </c>
       <c r="L8" t="n">
-        <v>99146.22</v>
+        <v>88839.45999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3d556c20-ce1a-4c49-87ac-2066de35c3e6</t>
+          <t>40970e21-aa22-4d50-a566-d28d86a053b9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-22 00:30:10</t>
+          <t>2025-02-26 15:56:29</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -877,11 +877,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>market_buy</t>
+          <t>market_sell</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>99187.39999999999</v>
+        <v>88849.89999999999</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -895,31 +895,31 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Bullish</t>
+          <t>Bearish</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>98688.4415</v>
+        <v>88878.75550000001</v>
       </c>
       <c r="J9" t="n">
-        <v>99156.70476190475</v>
+        <v>88980.78571428571</v>
       </c>
       <c r="K9" t="n">
-        <v>99145.94285714286</v>
+        <v>88857.87142857142</v>
       </c>
       <c r="L9" t="n">
-        <v>99166.44</v>
+        <v>88828.46000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>27294ba7-0d1a-4c71-ae67-d411c28a04f5</t>
+          <t>ddcb3f88-cf5b-4267-a773-1cb6f4d0dcd1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-22 00:30:15</t>
+          <t>2025-02-26 15:56:35</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -929,11 +929,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>market_buy</t>
+          <t>market_sell</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>99187.39999999999</v>
+        <v>88850</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -947,20 +947,124 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Bullish</t>
+          <t>Bearish</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>98688.44749999999</v>
+        <v>88878.755</v>
       </c>
       <c r="J10" t="n">
-        <v>99156.76190476191</v>
+        <v>88980.78095238096</v>
       </c>
       <c r="K10" t="n">
-        <v>99146.11428571427</v>
+        <v>88857.85714285714</v>
       </c>
       <c r="L10" t="n">
-        <v>99166.68000000001</v>
+        <v>88828.44</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ddcb3f88-cf5b-4267-a773-1cb6f4d0dcd1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-02-26 15:56:41</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>btcUSDT</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>88828.5</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>futures</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Bearish</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>88878.571</v>
+      </c>
+      <c r="J11" t="n">
+        <v>88979.02857142857</v>
+      </c>
+      <c r="K11" t="n">
+        <v>88852.60000000001</v>
+      </c>
+      <c r="L11" t="n">
+        <v>88821.08</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cc74b212-233a-4b62-9240-f08f3cc94623</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-02-26 15:56:46</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>btcUSDT</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>88813.10000000001</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>futures</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Opened</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Bearish</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>88878.571</v>
+      </c>
+      <c r="J12" t="n">
+        <v>88979.02857142857</v>
+      </c>
+      <c r="K12" t="n">
+        <v>88852.60000000001</v>
+      </c>
+      <c r="L12" t="n">
+        <v>88821.08</v>
       </c>
     </row>
   </sheetData>

--- a/trade_log.xlsx
+++ b/trade_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O96"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6483,17 +6483,332 @@
       <c r="L96" t="n">
         <v>91435.64</v>
       </c>
-      <c r="M96" t="inlineStr">
+      <c r="M96" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>dd25c90d-7a65-4bb3-92c5-3f294af53f96</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2025-03-10 13:33:28</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>btcUSDT</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>82327.60000000001</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>futures</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Opened</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>81152.6565</v>
+      </c>
+      <c r="J97" t="n">
+        <v>82184.21904761906</v>
+      </c>
+      <c r="K97" t="n">
+        <v>82201.38571428573</v>
+      </c>
+      <c r="L97" t="n">
+        <v>82220.48000000001</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>dd25c90d-7a65-4bb3-92c5-3f294af53f96</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2025-03-10 13:33:36</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>btcUSDT</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>82349.2</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>futures</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>81152.65700000001</v>
+      </c>
+      <c r="J98" t="n">
+        <v>82184.22380952381</v>
+      </c>
+      <c r="K98" t="n">
+        <v>82201.40000000001</v>
+      </c>
+      <c r="L98" t="n">
+        <v>82220.5</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>c2e6ab33-b3c0-47e4-be70-2344fbc4d023</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2025-03-10 13:33:42</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>btcUSDT</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>82316.5</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>futures</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Opened</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>81152.66</v>
+      </c>
+      <c r="J99" t="n">
+        <v>82184.25238095238</v>
+      </c>
+      <c r="K99" t="n">
+        <v>82201.48571428572</v>
+      </c>
+      <c r="L99" t="n">
+        <v>82220.62</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>c2e6ab33-b3c0-47e4-be70-2344fbc4d023</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2025-03-10 13:33:48</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>btcUSDT</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>82357.39999999999</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>futures</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>81152.811</v>
+      </c>
+      <c r="J100" t="n">
+        <v>82185.69047619047</v>
+      </c>
+      <c r="K100" t="n">
+        <v>82205.80000000002</v>
+      </c>
+      <c r="L100" t="n">
+        <v>82226.66</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2e905a54-7391-4929-80f3-05f76ca1d71a</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2025-03-10 18:55:45</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>btcUSDT</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>82265.5</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>futures</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Opened</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Shortbull</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>82298.94</v>
+      </c>
+      <c r="J101" t="n">
+        <v>82226.8142857143</v>
+      </c>
+      <c r="K101" t="n">
+        <v>82256.67142857144</v>
+      </c>
+      <c r="L101" t="n">
+        <v>82269.56</v>
+      </c>
+      <c r="M101" t="inlineStr">
         <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="N96" t="inlineStr">
+      <c r="N101" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="O96" t="inlineStr">
+      <c r="O101" t="inlineStr">
         <is>
           <t>1m</t>
         </is>
